--- a/Laboratarios/TP_Laboratorio_2/Mediciones/Mediciones.xlsx
+++ b/Laboratarios/TP_Laboratorio_2/Mediciones/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/talbanesi_frba_utn_edu_ar/Documents/UTN/05 - UTN Electrónica 2023/01 - Teoria de Circuitos II/GitHub/TC2_2023/Laboratarios/TP_Laboratorio_2/Mediciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="11_F25DC773A252ABDACC1048F8499C73D25ADE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73015595-18A1-4EDD-B523-0E788B19C8CA}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_F25DC773A252ABDACC1048F8499C73D25ADE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4689832A-F21B-40B3-8AB2-BCAEC35101A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TALKTHROUGH" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,12 +264,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,42 +272,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -364,8 +322,44 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -513,7 +507,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -524,7 +518,330 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TALKTHROUGH!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TALKTHROUGH!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.46247597694275566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2412902280276123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28795641401285038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2943914285322786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3100309751286456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4175416651809123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.61700888564673206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.72424345308889426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91514981121350236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0541270103200584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4116214857141456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7221989783524496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.1291066182857348</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.4569149420491216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.0084000461778793</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.7811247244009789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.4802962274572815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12.971442412444381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-16.901960800285135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AE32-436A-890C-23F1C61287A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="855491375"/>
+        <c:axId val="1001972527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="855491375"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001972527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1001972527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855491375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -538,7 +855,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -553,8 +870,468 @@
           <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
-    </c:title>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FIR EQUIRIPPLE'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FIR EQUIRIPPLE'!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.42504307520485696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0352583070894272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44552789422304417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43559548646484009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31677161371673768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17200343523835138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.25178254616040935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.52425250840493864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91514981121350236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3389357926122634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6321499384062856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4369749923271282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.0747269235996821</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.881360887005512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-16.074107097120635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-21.784463686835309</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21.686417714000719</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-520A-4500-86D2-05B82B9940FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056856015"/>
+        <c:axId val="1115521167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056856015"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1115521167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1115521167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056856015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -950,7 +1727,566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IIR BUTTERWORTH'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atenuacion [dB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'IIR BUTTERWORTH'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'IIR BUTTERWORTH'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.3919111212676154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15781924773145195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24297779159190014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1998047933257104E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18733773568625334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21354672665448399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3804647462686066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.51108208944776234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.64369366742802381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.77836132060739238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.83281848731685804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1953641000697959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.6334009290263916</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0317655057165398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.6996134980488105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.92256071356476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.5801079718842779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-22.772368677989849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-25.768817367119215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-30.629578340845104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-33.128353073011098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-36.650178254124725</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-42.67077816740435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFA2-4358-B299-77B258A76094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1209808959"/>
+        <c:axId val="1210957903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1209808959"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1210957903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1210957903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209808959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1506,7 +2842,1637 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>658906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3EE3D3-4E09-94F7-A943-03213C850EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>667753</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1016669</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C68471-D1FA-3EBC-838E-A3F6C82F1BEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1547,6 +4513,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>775138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACEA698-601C-CC85-B75B-D003A49F06B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1558,16 +4565,16 @@
     <tableColumn id="1" xr3:uid="{3F313743-E113-4DDD-8881-8975D8F00ED3}" name="Frecuencia [Hz]" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{0A6D4E57-469E-4C28-B503-65CA4026B256}" name="Entrada Vrms [V]" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{164DEACC-DC76-4377-A528-B8C020B72AE1}" name="Salida Vrms [V]" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{31B7F2D4-04F5-4838-84F9-4DFA9D474045}" name="Atenuacion [dB]" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{31B7F2D4-04F5-4838-84F9-4DFA9D474045}" name="Atenuacion [dB]" dataDxfId="5">
       <calculatedColumnFormula>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{897C7C40-88F3-4228-9112-4524E9675A5D}" name="Delta de tiempo [seg]" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{66FD850E-ED53-4865-980F-B35D6182966A}" name="Periodo [seg]" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{897C7C40-88F3-4228-9112-4524E9675A5D}" name="Delta de tiempo [seg]" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{66FD850E-ED53-4865-980F-B35D6182966A}" name="Periodo [seg]" dataDxfId="3">
       <calculatedColumnFormula>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{77C098BF-87FD-4DCC-8CEF-8EB1981A7981}" name="Fase [rad]" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{764BDE03-2926-4582-954F-5AEF5541A54F}" name="Fase [°]" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{32F08FA0-1C56-4AC0-A063-0BAD47C9479F}" name="Observaciones" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{77C098BF-87FD-4DCC-8CEF-8EB1981A7981}" name="Fase [rad]" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{764BDE03-2926-4582-954F-5AEF5541A54F}" name="Fase [°]" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{32F08FA0-1C56-4AC0-A063-0BAD47C9479F}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1838,25 +4845,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="11.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +4892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>10</v>
       </c>
@@ -1910,7 +4917,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>100</v>
       </c>
@@ -1935,7 +4942,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>200</v>
       </c>
@@ -1960,7 +4967,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>300</v>
       </c>
@@ -1985,7 +4992,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>400</v>
       </c>
@@ -2010,7 +5017,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>500</v>
       </c>
@@ -2035,7 +5042,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>600</v>
       </c>
@@ -2058,7 +5065,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>700</v>
       </c>
@@ -2081,7 +5088,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>800</v>
       </c>
@@ -2104,7 +5111,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>900</v>
       </c>
@@ -2127,7 +5134,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1000</v>
       </c>
@@ -2150,7 +5157,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1200</v>
       </c>
@@ -2173,7 +5180,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1400</v>
       </c>
@@ -2196,7 +5203,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1600</v>
       </c>
@@ -2219,7 +5226,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1800</v>
       </c>
@@ -2242,7 +5249,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2000</v>
       </c>
@@ -2265,7 +5272,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2500</v>
       </c>
@@ -2288,7 +5295,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3000</v>
       </c>
@@ -2311,7 +5318,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>10000</v>
       </c>
@@ -2334,7 +5341,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20000</v>
       </c>
@@ -2357,7 +5364,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2374,7 +5381,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2391,7 +5398,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2408,7 +5415,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2425,7 +5432,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2442,7 +5449,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2459,7 +5466,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2476,7 +5483,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2493,7 +5500,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2510,7 +5517,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2527,7 +5534,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2544,7 +5551,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2561,7 +5568,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2578,7 +5585,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2595,7 +5602,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2612,7 +5619,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2629,7 +5636,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2646,7 +5653,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2663,7 +5670,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2680,7 +5687,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2697,7 +5704,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2714,7 +5721,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2731,7 +5738,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2748,7 +5755,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2765,7 +5772,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2782,7 +5789,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2799,7 +5806,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2816,7 +5823,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2833,7 +5840,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2850,7 +5857,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2867,7 +5874,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2884,7 +5891,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2901,7 +5908,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2918,7 +5925,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2935,7 +5942,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2952,7 +5959,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2969,7 +5976,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2986,7 +5993,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3003,7 +6010,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3020,7 +6027,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3037,7 +6044,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3054,7 +6061,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3071,44 +6078,45 @@
       <c r="H63" s="9"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3117,952 +6125,953 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E7266C-4509-4915-A2B3-0902094E1F98}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A21" sqref="A2:A21"/>
+    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="6">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <f>20*LOG10(C2/B2)</f>
         <v>0.42504307520485696</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>100</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="6">
         <v>0.63200000000000001</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>0.71199999999999997</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D22" si="0">20*LOG10(C3/B3)</f>
         <v>1.0352583070894272</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>200</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>0.70299999999999996</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>0.74</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0.44552789422304417</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>300</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="6">
         <v>0.7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>0.73599999999999999</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.43559548646484009</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>400</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>0.7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>0.72599999999999998</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.31677161371673768</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>500</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="6">
         <v>0.7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0.17200343523835138</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="E7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>600</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="6">
         <v>0.7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>0.7</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>700</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="6">
         <v>0.7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>0.68</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>-0.25178254616040935</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>800</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="6">
         <v>0.7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>-0.52425250840493864</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>900</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="6">
         <v>0.7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>0.63</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>-0.91514981121350236</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>1000</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="6">
         <v>0.7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>0.6</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>-1.3389357926122634</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>1200</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="6">
         <v>0.7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>-2.6321499384062856</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>1400</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>0.7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>0.42</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>-4.4369749923271282</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>1600</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="6">
         <v>0.7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>0.31</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-7.0747269235996821</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>1800</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>0.7</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>0.2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-10.881360887005512</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>2000</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="6">
         <v>0.7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>0.11</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>-16.074107097120635</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>2500</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>0.7</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>-21.784463686835309</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>3000</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="6">
         <v>0.68</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>-21.686417714000719</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>10000</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="e">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20000</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="e">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="e">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4070,1000 +7079,1000 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EE2C72-1D1A-45D2-BC9D-41BB5AD78F09}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A44" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="6">
         <v>0.65700000000000003</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>0.76</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <f>20*LOG10(C2/B2)</f>
         <v>1.264964454420211</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>100</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="6">
         <v>0.72</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>0.8</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" ref="D3:D28" si="0">20*LOG10(C3/B3)</f>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D27" si="0">20*LOG10(C3/B3)</f>
         <v>0.91514981121350281</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>200</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>0.7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>0.77</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0.82785370316450158</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>300</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="6">
         <v>0.7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>0.76</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.71431104533069156</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>400</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>0.7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>0.75</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.59926446754886409</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>500</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="6">
         <v>0.7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>0.73</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0.36449640212398204</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="E7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>600</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="6">
         <v>0.7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>0.71799999999999997</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0.22052808456087097</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>700</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="6">
         <v>0.7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>0.69</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>-0.12497898554003081</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>800</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="6">
         <v>0.7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>0.6</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>-1.3389357926122634</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>900</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="6">
         <v>0.7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>0.65</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>-0.64369366742802381</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>1000</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="6">
         <v>0.7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>0.63</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>-0.91514981121350236</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>1200</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="6">
         <v>0.7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>-1.6334009290263916</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>2000</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>0.69</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>0.39</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>-4.9556896742151215</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>3000</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="6">
         <v>0.68</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>0.18</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-11.544728152058607</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>3500</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>0.68</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>0.13</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-14.371311207987992</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>4000</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="6">
         <v>0.67</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>0.05</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>-22.542095967296156</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>4500</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>0.66</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>0.01</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>-36.39087871083737</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>5000</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="6">
         <v>0.65</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>0.01</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>-36.258267132857114</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>5500</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="6">
         <v>0.65</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="6">
         <v>0.02</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-30.237667219577489</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>6000</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <v>0.65</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>0.09</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>-17.173416944070613</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>7000</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="6">
         <v>0.63</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>0.1</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>-15.986810989071634</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>8000</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <v>0.61699999999999999</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>0.13</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>-13.526836234528099</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>9000</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="6">
         <v>0.6</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>-8.4808562247248531</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>10000</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="6">
         <v>0.59</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>-6.7256621521589093</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>20000</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="e">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="e">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5075,956 +8084,993 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9F89B2-B18F-472D-9885-0FBB8C97E4DB}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="6">
         <v>0.65</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>0.68</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <f>20*LOG10(C2/B2)</f>
         <v>0.3919111212676154</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>100</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="6">
         <v>0.72199999999999998</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>0.70899999999999996</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D27" si="0">20*LOG10(C3/B3)</f>
         <v>-0.15781924773145195</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>200</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>0.70499999999999996</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0.24297779159190014</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>300</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="6">
         <v>0.70299999999999996</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>-6.1998047933257104E-2</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>400</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="e">
+      <c r="B6" s="6">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+        <v>-0.18733773568625334</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>500</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="6">
         <v>0.7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>-0.21354672665448399</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="E7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>600</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="e">
+      <c r="B8" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+        <v>-0.3804647462686066</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>700</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="e">
+      <c r="B9" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+        <v>-0.51108208944776234</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>800</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="6">
         <v>0.7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>0.65</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>-0.64369366742802381</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>900</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="e">
+      <c r="B11" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+        <v>-0.77836132060739238</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>1000</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="6">
         <v>0.7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>-0.83281848731685804</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>1200</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="e">
+      <c r="B13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+        <v>-1.1953641000697959</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>1400</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>0.7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>-1.6334009290263916</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>1600</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="e">
+      <c r="B15" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+        <v>-2.0317655057165398</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>1800</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>0.7</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-2.6996134980488105</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>2000</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="6">
         <v>0.7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>0.5</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>-2.92256071356476</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>2500</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>0.69299999999999995</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>0.23</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>-9.5801079718842779</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>3000</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="6">
         <v>0.68799999999999994</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>0.05</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>-22.772368677989849</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>3200</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="e">
+      <c r="B20" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+        <v>-25.768817367119215</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>3500</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <v>0.68</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>0.02</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>-30.629578340845104</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>3800</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="e">
+      <c r="B22" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+        <v>-33.128353073011098</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>4000</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <v>0.68</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>0.01</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>-36.650178254124725</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>5000</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="e">
+      <c r="B24" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="C24" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="e">
+        <v>-42.67077816740435</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="e">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="e">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12" t="e">
-        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12" t="e">
-        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="e">
+        <f>20*LOG(TALKTHROUGH[[#This Row],[Salida Vrms '[V']]]/TALKTHROUGH[[#This Row],[Entrada Vrms '[V']]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="e">
+        <f>1/TALKTHROUGH[[#This Row],[Delta de tiempo '[seg']]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>